--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2303547.136639196</v>
+        <v>2412700.051140897</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577128</v>
+        <v>612367.9462114753</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5821179.3027766</v>
+        <v>6151954.810840968</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>371.6174880305659</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -671,10 +673,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>46.93907536729481</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -817,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -865,22 +867,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>113.9212067093113</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>265.2846861940521</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>374.6170033797972</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>83.27366198496175</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>182.5898683333712</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1114,13 +1116,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>124.9688600758153</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>47.23474715374056</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.0480212707258</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1294,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>143.2867858822616</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>214.304471109886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,19 +1372,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>216.366357758989</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1531,7 +1533,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1540,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>130.814808058257</v>
       </c>
       <c r="H13" t="n">
-        <v>135.5984076109077</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.34748203137175</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>40.19982001886513</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>129.5730916038926</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>87.83885303493871</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2056,13 +2058,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>173.1605148336926</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2087,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2239,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2248,10 +2250,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2293,7 +2295,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>232.4760905941393</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2302,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>119.3016407709871</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>137.7607629098753</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2615,7 +2617,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>160.5352476244181</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>49.87597792716577</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2776,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>108.9935857372484</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2956,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3013,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>116.047334399761</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,16 +3243,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3272,7 +3274,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536238</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -3439,7 +3441,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>260.444681387164</v>
       </c>
       <c r="W37" t="n">
-        <v>72.06168307085447</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3664,10 +3666,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3676,7 +3678,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>21.25017868153172</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>47.49404674469103</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>340.1236406478069</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>86.73226015562089</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>33.7994086908846</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3980,16 +3982,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>203.1698899354261</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4040,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>96.44420510686699</v>
       </c>
       <c r="E46" t="n">
-        <v>54.43380360623924</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1416.774797953253</v>
+        <v>967.1113293026274</v>
       </c>
       <c r="C2" t="n">
-        <v>989.8740679665527</v>
+        <v>540.2105993159274</v>
       </c>
       <c r="D2" t="n">
-        <v>970.621851191957</v>
+        <v>520.9583825413317</v>
       </c>
       <c r="E2" t="n">
-        <v>948.6853153802186</v>
+        <v>499.0218467295933</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5611335696188</v>
+        <v>73.89766491899351</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2220711590675</v>
+        <v>73.59900654884621</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884621</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K2" t="n">
-        <v>475.2419029331441</v>
+        <v>517.6410595347454</v>
       </c>
       <c r="L2" t="n">
-        <v>475.2419029331441</v>
+        <v>996.5799837771733</v>
       </c>
       <c r="M2" t="n">
-        <v>932.027809635875</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="N2" t="n">
-        <v>1388.813716338606</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="O2" t="n">
-        <v>1845.599623041337</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1609.813899533644</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1351.458990130056</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1351.458990130056</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041337</v>
+        <v>1351.458990130056</v>
       </c>
       <c r="X2" t="n">
-        <v>1433.879624209084</v>
+        <v>1343.779395338208</v>
       </c>
       <c r="Y2" t="n">
-        <v>1432.582758204378</v>
+        <v>1342.482529333502</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.542625066816</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.0367215843207</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.1967630996057</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725429</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.8489990554471</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.7952272730511</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353607</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>133.8657769972725</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>133.8657769972725</v>
       </c>
       <c r="K3" t="n">
-        <v>493.6978991635576</v>
+        <v>133.8657769972725</v>
       </c>
       <c r="L3" t="n">
-        <v>493.6978991635576</v>
+        <v>133.8657769972725</v>
       </c>
       <c r="M3" t="n">
-        <v>850.0084995511718</v>
+        <v>612.8047012397005</v>
       </c>
       <c r="N3" t="n">
-        <v>850.0084995511718</v>
+        <v>977.2289161310148</v>
       </c>
       <c r="O3" t="n">
-        <v>1306.794406253903</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177125</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474803</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.13438539444</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533706</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366923</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.1625231335863</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.4696344868787</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>646.7718677728423</v>
+        <v>783.7024888483238</v>
       </c>
       <c r="C4" t="n">
-        <v>474.7993046517582</v>
+        <v>783.7024888483238</v>
       </c>
       <c r="D4" t="n">
-        <v>474.7993046517582</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="E4" t="n">
-        <v>474.7993046517582</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>302.9375304263186</v>
+        <v>448.5239417496549</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647543</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>96.19346351647543</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>393.4019879271579</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>784.5877828974087</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1772.996225334042</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.902165973849</v>
+        <v>1772.996225334042</v>
       </c>
       <c r="V4" t="n">
-        <v>836.9378364849078</v>
+        <v>1491.284757942071</v>
       </c>
       <c r="W4" t="n">
-        <v>836.9378364849078</v>
+        <v>1216.432354114584</v>
       </c>
       <c r="X4" t="n">
-        <v>836.9378364849078</v>
+        <v>973.8684575603895</v>
       </c>
       <c r="Y4" t="n">
-        <v>836.9378364849078</v>
+        <v>973.8684575603895</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1228.292693740573</v>
+        <v>1295.32778354778</v>
       </c>
       <c r="C5" t="n">
-        <v>1205.432367794277</v>
+        <v>1272.467457601484</v>
       </c>
       <c r="D5" t="n">
-        <v>1186.180151019681</v>
+        <v>1253.215240826888</v>
       </c>
       <c r="E5" t="n">
-        <v>1164.243615207943</v>
+        <v>827.2383009747456</v>
       </c>
       <c r="F5" t="n">
-        <v>739.1194333973433</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>358.3859952497895</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>358.3859952497895</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>358.3859952497895</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M5" t="n">
-        <v>815.1719019525203</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.957808655251</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.957808655251</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1657.117518828657</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X5" t="n">
-        <v>1649.437924036808</v>
+        <v>1716.473013844015</v>
       </c>
       <c r="Y5" t="n">
-        <v>1244.100653991699</v>
+        <v>1311.135743798905</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023296</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.0561247023296</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>316.0561247023296</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>772.8420314050604</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>1229.627938107791</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>1388.813716338606</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P6" t="n">
-        <v>1388.813716338606</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>469.1457362734651</v>
+        <v>792.5008004748155</v>
       </c>
       <c r="C7" t="n">
-        <v>469.1457362734651</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="D7" t="n">
-        <v>469.1457362734651</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E7" t="n">
-        <v>302.9375304263186</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F7" t="n">
-        <v>302.9375304263186</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1444.297549031529</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.125227786372</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.940779286676</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V7" t="n">
-        <v>870.229311894705</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W7" t="n">
-        <v>595.376908067218</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="X7" t="n">
-        <v>595.376908067218</v>
+        <v>1203.277779222822</v>
       </c>
       <c r="Y7" t="n">
-        <v>469.1457362734651</v>
+        <v>976.9350109125642</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1820.815201993657</v>
+        <v>1270.775797585523</v>
       </c>
       <c r="C8" t="n">
-        <v>1393.914472006957</v>
+        <v>1247.915471639227</v>
       </c>
       <c r="D8" t="n">
-        <v>970.6218511919569</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E8" t="n">
-        <v>544.6449113398145</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5207295292147</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>475.2419029331441</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>932.027809635875</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>932.027809635875</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1388.813716338606</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1845.599623041337</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1911.404542910541</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1653.049633506954</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1295.560218633203</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1295.560218633203</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.920028249488</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y8" t="n">
-        <v>1836.623162244782</v>
+        <v>1286.583757836649</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>44.35863542273858</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L9" t="n">
-        <v>44.35863542273858</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M9" t="n">
-        <v>44.35863542273858</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N9" t="n">
-        <v>501.1445421254695</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O9" t="n">
-        <v>850.0084995511716</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253902</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.31116655892</v>
+        <v>776.6315263011404</v>
       </c>
       <c r="C10" t="n">
-        <v>452.338603437836</v>
+        <v>604.6589631800564</v>
       </c>
       <c r="D10" t="n">
-        <v>452.338603437836</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="E10" t="n">
-        <v>452.338603437836</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F10" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>303.8948463526241</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1798.56100972851</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1555.22166195441</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1555.22166195441</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1273.510194562439</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W10" t="n">
-        <v>1273.510194562439</v>
+        <v>1209.361391567401</v>
       </c>
       <c r="X10" t="n">
-        <v>1030.946298008244</v>
+        <v>966.797495013206</v>
       </c>
       <c r="Y10" t="n">
-        <v>814.4771352709856</v>
+        <v>966.797495013206</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1049.778315921867</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1049.778315921867</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1049.778315921867</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>623.8013760697248</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>405.2494995454935</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.48424976299954</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>787.9925577384986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>787.9925577384986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>1614.703079337054</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>2459.847729487866</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P11" t="n">
-        <v>3168.127008645794</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T11" t="n">
-        <v>3298.919623067751</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3040.564713664163</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V11" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W11" t="n">
-        <v>2286.68394909076</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X11" t="n">
-        <v>1874.963950258507</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>1469.626680213397</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>3756.065627259876</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>3652.225668775161</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>3547.523735048099</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>3453.877904731003</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>3359.824132948607</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299954</v>
+        <v>3306.448039710917</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299954</v>
+        <v>3306.448039710917</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425906</v>
+        <v>3578.145528990508</v>
       </c>
       <c r="K12" t="n">
-        <v>344.1817390425906</v>
+        <v>3578.145528990508</v>
       </c>
       <c r="L12" t="n">
-        <v>344.1817390425906</v>
+        <v>3578.145528990508</v>
       </c>
       <c r="M12" t="n">
-        <v>909.6712922473346</v>
+        <v>4568.970883343944</v>
       </c>
       <c r="N12" t="n">
-        <v>909.6712922473346</v>
+        <v>4568.970883343944</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.152570258806</v>
+        <v>4568.970883343944</v>
       </c>
       <c r="P12" t="n">
-        <v>1799.152570258806</v>
+        <v>4568.970883343944</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>5033.116360206723</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>5033.81142285268</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>4891.931487150358</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>4707.163291069995</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>4502.190152209262</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>4305.668775042479</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>4142.191428809142</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>4002.498540162434</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1148.837192291257</v>
+        <v>888.2776948471594</v>
       </c>
       <c r="C13" t="n">
-        <v>976.8646291701732</v>
+        <v>716.3051317260754</v>
       </c>
       <c r="D13" t="n">
-        <v>813.5478562969439</v>
+        <v>716.3051317260754</v>
       </c>
       <c r="E13" t="n">
-        <v>647.3396504497974</v>
+        <v>550.0969258789289</v>
       </c>
       <c r="F13" t="n">
-        <v>475.4778762243578</v>
+        <v>378.2351516534893</v>
       </c>
       <c r="G13" t="n">
-        <v>309.22090651859</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2082.762229695263</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>2082.762229695263</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V13" t="n">
-        <v>2082.762229695263</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W13" t="n">
-        <v>1807.909825867776</v>
+        <v>1547.350328423678</v>
       </c>
       <c r="X13" t="n">
-        <v>1565.345929313581</v>
+        <v>1304.786431869483</v>
       </c>
       <c r="Y13" t="n">
-        <v>1339.003161003323</v>
+        <v>1078.443663559225</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.087708579895</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>435.087708579895</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L14" t="n">
-        <v>1332.080299397014</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M14" t="n">
-        <v>2229.072890214134</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N14" t="n">
-        <v>3126.065481031253</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O14" t="n">
-        <v>3506.656153268074</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P14" t="n">
-        <v>3506.656153268074</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3365.857578746389</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3365.857578746389</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2969.466229046736</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2969.466229046736</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2930.731398712017</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>344.1817390425906</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>344.1817390425906</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.17432985971</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N15" t="n">
-        <v>1417.02640348073</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O15" t="n">
-        <v>1417.02640348073</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P15" t="n">
-        <v>1417.02640348073</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>851.6001676398462</v>
+        <v>919.4582979645735</v>
       </c>
       <c r="C16" t="n">
-        <v>679.6276045187622</v>
+        <v>747.4857348434895</v>
       </c>
       <c r="D16" t="n">
-        <v>679.6276045187622</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E16" t="n">
-        <v>513.4193986716157</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F16" t="n">
-        <v>382.537487960613</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G16" t="n">
-        <v>216.2805182548452</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.723616382436</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1792.384268608336</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U16" t="n">
-        <v>1792.384268608336</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V16" t="n">
-        <v>1510.672801216365</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W16" t="n">
-        <v>1510.672801216365</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X16" t="n">
-        <v>1268.10890466217</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y16" t="n">
-        <v>1041.766136351912</v>
+        <v>960.064176771508</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
@@ -5507,43 +5509,43 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O17" t="n">
-        <v>4090.576687723259</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5555,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5589,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>610.0460590406528</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M18" t="n">
-        <v>305.3113489363686</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N18" t="n">
-        <v>305.3113489363686</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3438.986156927657</v>
+        <v>3538.928949812021</v>
       </c>
       <c r="C19" t="n">
-        <v>3267.013593806573</v>
+        <v>3366.956386690937</v>
       </c>
       <c r="D19" t="n">
-        <v>3267.013593806573</v>
+        <v>3366.956386690937</v>
       </c>
       <c r="E19" t="n">
-        <v>3267.013593806573</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="F19" t="n">
-        <v>3178.287479629867</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="G19" t="n">
-        <v>3178.287479629867</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H19" t="n">
-        <v>3034.491211138022</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I19" t="n">
-        <v>2934.722642878298</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J19" t="n">
-        <v>2992.213971102456</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K19" t="n">
-        <v>3218.741572308293</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L19" t="n">
-        <v>3573.430893602714</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M19" t="n">
-        <v>3964.616688572965</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N19" t="n">
-        <v>4342.108199449</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O19" t="n">
-        <v>4697.536328128764</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P19" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q19" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R19" t="n">
         <v>5068.0970569786</v>
       </c>
       <c r="S19" t="n">
-        <v>4897.962009497734</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T19" t="n">
-        <v>4654.622661723634</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U19" t="n">
-        <v>4654.622661723634</v>
+        <v>4479.713050780511</v>
       </c>
       <c r="V19" t="n">
-        <v>4372.911194331663</v>
+        <v>4198.00158338854</v>
       </c>
       <c r="W19" t="n">
-        <v>4098.058790504176</v>
+        <v>4198.00158338854</v>
       </c>
       <c r="X19" t="n">
-        <v>3855.494893949981</v>
+        <v>3955.437686834345</v>
       </c>
       <c r="Y19" t="n">
-        <v>3629.152125639723</v>
+        <v>3729.094918524087</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261617</v>
@@ -5741,10 +5743,10 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,25 +5755,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L20" t="n">
-        <v>1394.531219842001</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5795,7 +5797,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N21" t="n">
-        <v>1446.844867123559</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>598.0846618319722</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C22" t="n">
-        <v>598.0846618319722</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D22" t="n">
-        <v>434.7678889587429</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1587.378398317691</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V22" t="n">
-        <v>1305.66693092572</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W22" t="n">
-        <v>1030.814527098233</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X22" t="n">
-        <v>788.2506305440379</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y22" t="n">
-        <v>788.2506305440379</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6075,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C25" t="n">
-        <v>201.4478291472353</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D25" t="n">
-        <v>201.4478291472353</v>
+        <v>579.5737431045868</v>
       </c>
       <c r="E25" t="n">
-        <v>201.4478291472353</v>
+        <v>579.5737431045868</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>407.7119688791472</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>241.4549991733793</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,40 +6214,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>195.4640539534684</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6260,7 +6262,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
         <v>3777.607131232208</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>1012.462104613637</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>840.4895414925531</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>840.4895414925531</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>674.2813356454067</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1661.773555548329</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>1202.628073325703</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3278.556980224822</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="C31" t="n">
-        <v>3106.584417103738</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D31" t="n">
-        <v>3106.584417103738</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E31" t="n">
-        <v>3106.584417103738</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5017.717281294595</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>4774.377933520494</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>4494.193485020799</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>4212.482017628828</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>3937.629613801341</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>3695.065717247146</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y31" t="n">
-        <v>3468.722948936888</v>
+        <v>1032.493025844838</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6780,22 +6782,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1446.844867123559</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1446.844867123559</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O33" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1130.841591401354</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C34" t="n">
-        <v>958.8690282802702</v>
+        <v>2986.82914530688</v>
       </c>
       <c r="D34" t="n">
-        <v>795.5522554070409</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E34" t="n">
-        <v>629.3440495598944</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U34" t="n">
-        <v>1822.202732251165</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V34" t="n">
-        <v>1822.202732251165</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W34" t="n">
-        <v>1547.350328423678</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X34" t="n">
-        <v>1547.350328423678</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y34" t="n">
-        <v>1321.00756011342</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063318</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076619</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261619</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J35" t="n">
         <v>464.9061722227241</v>
@@ -6944,43 +6946,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3833.214576747414</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931864</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232211</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399958</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354849</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G36" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854197</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>941.9189991784958</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C37" t="n">
-        <v>769.9464360574118</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D37" t="n">
-        <v>606.6296631841825</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E37" t="n">
-        <v>440.421457337036</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>412.3559516034421</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J37" t="n">
         <v>159.7940416299866</v>
@@ -7099,7 +7101,7 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M37" t="n">
         <v>1132.196759100495</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>1955.492679006434</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>1673.781211614463</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W37" t="n">
-        <v>1600.991632755014</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X37" t="n">
-        <v>1358.427736200819</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.084967890562</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +7159,7 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
         <v>839.4070255988736</v>
@@ -7172,37 +7174,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K39" t="n">
-        <v>700.2342829360799</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L39" t="n">
-        <v>700.2342829360799</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M39" t="n">
-        <v>700.2342829360799</v>
+        <v>4362.434577686964</v>
       </c>
       <c r="N39" t="n">
-        <v>730.647150085061</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="O39" t="n">
-        <v>730.647150085061</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>875.4793615910734</v>
+        <v>3854.586992529306</v>
       </c>
       <c r="C40" t="n">
-        <v>703.5067984699893</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="D40" t="n">
-        <v>540.1900255967601</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E40" t="n">
-        <v>540.1900255967601</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F40" t="n">
-        <v>368.3282513713204</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U40" t="n">
-        <v>2091.11586638705</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V40" t="n">
-        <v>1809.404398995079</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W40" t="n">
-        <v>1534.551995167592</v>
+        <v>4044.752961241372</v>
       </c>
       <c r="X40" t="n">
-        <v>1291.988098613397</v>
+        <v>4044.752961241372</v>
       </c>
       <c r="Y40" t="n">
-        <v>1065.645330303139</v>
+        <v>4044.752961241372</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2052.693542348958</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1625.792812362258</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1625.792812362258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299954</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>72.48424976299954</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L41" t="n">
-        <v>969.4768405801187</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M41" t="n">
-        <v>1866.469431397238</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>2763.462022214357</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>3608.606672365169</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3624.212488149977</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3624.212488149977</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3624.212488149977</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3227.821138450324</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2816.101139618071</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2472.541906640488</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>527.5451254692584</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>527.5451254692584</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M42" t="n">
-        <v>527.5451254692584</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>527.5451254692584</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.665372287236</v>
+        <v>1173.323611261878</v>
       </c>
       <c r="C43" t="n">
-        <v>983.6928091661524</v>
+        <v>1001.351048140794</v>
       </c>
       <c r="D43" t="n">
-        <v>820.3760362929231</v>
+        <v>838.0342752675643</v>
       </c>
       <c r="E43" t="n">
-        <v>654.1678304457766</v>
+        <v>671.8260694204179</v>
       </c>
       <c r="F43" t="n">
-        <v>482.306056220337</v>
+        <v>499.9642951949783</v>
       </c>
       <c r="G43" t="n">
-        <v>316.0490865145692</v>
+        <v>333.7073254892104</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227236</v>
+        <v>189.9110569973648</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2252.897277176128</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2218.756460316648</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.572011816952</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V43" t="n">
-        <v>1656.860544424981</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="W43" t="n">
-        <v>1382.008140597494</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="X43" t="n">
-        <v>1382.008140597494</v>
+        <v>1589.832348284201</v>
       </c>
       <c r="Y43" t="n">
-        <v>1155.665372287236</v>
+        <v>1363.489579973943</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1866.83558479923</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1439.93485481253</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1234.712743766645</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1497.146744455151</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1497.146744455151</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>1497.146744455151</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>2342.291394605963</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.570673763891</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268074</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.91962306775</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3040.564713664163</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2286.68394909076</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2286.68394909076</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2286.68394909076</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>351.6283820045024</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>942.113308572842</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L45" t="n">
-        <v>942.113308572842</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M45" t="n">
-        <v>942.113308572842</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N45" t="n">
-        <v>1799.152570258806</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O45" t="n">
-        <v>1799.152570258806</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P45" t="n">
-        <v>1799.152570258806</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2080.577470321572</v>
+        <v>3375.975369221655</v>
       </c>
       <c r="C46" t="n">
-        <v>1908.604907200488</v>
+        <v>3204.002806100571</v>
       </c>
       <c r="D46" t="n">
-        <v>1908.604907200488</v>
+        <v>3106.584417103736</v>
       </c>
       <c r="E46" t="n">
-        <v>1853.621267194186</v>
+        <v>3106.584417103736</v>
       </c>
       <c r="F46" t="n">
-        <v>1853.621267194186</v>
+        <v>2934.722642878296</v>
       </c>
       <c r="G46" t="n">
-        <v>1687.364297488418</v>
+        <v>2934.722642878296</v>
       </c>
       <c r="H46" t="n">
-        <v>1543.568028996573</v>
+        <v>2934.722642878296</v>
       </c>
       <c r="I46" t="n">
-        <v>1443.799460736848</v>
+        <v>2934.722642878296</v>
       </c>
       <c r="J46" t="n">
-        <v>1501.290788961006</v>
+        <v>2992.213971102454</v>
       </c>
       <c r="K46" t="n">
-        <v>1727.818390166844</v>
+        <v>3218.741572308291</v>
       </c>
       <c r="L46" t="n">
-        <v>2082.507711461265</v>
+        <v>3573.430893602712</v>
       </c>
       <c r="M46" t="n">
-        <v>2473.693506431515</v>
+        <v>3964.616688572963</v>
       </c>
       <c r="N46" t="n">
-        <v>2851.185017307551</v>
+        <v>4342.108199448999</v>
       </c>
       <c r="O46" t="n">
-        <v>3206.613145987314</v>
+        <v>4697.536328128762</v>
       </c>
       <c r="P46" t="n">
-        <v>3497.212357909215</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>3577.17387483715</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S46" t="n">
-        <v>3577.17387483715</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T46" t="n">
-        <v>3333.83452706305</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U46" t="n">
-        <v>3053.650078563354</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V46" t="n">
-        <v>2771.938611171383</v>
+        <v>4309.90040662566</v>
       </c>
       <c r="W46" t="n">
-        <v>2497.086207343896</v>
+        <v>4035.048002798173</v>
       </c>
       <c r="X46" t="n">
-        <v>2497.086207343896</v>
+        <v>3792.484106243979</v>
       </c>
       <c r="Y46" t="n">
-        <v>2270.743439033638</v>
+        <v>3566.14133793372</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>478.5220861203824</v>
+        <v>519.541291948777</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865906</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>406.0019360838881</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>383.0064778735545</v>
+        <v>506.8734716662956</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>389.4482957805258</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.9485808761899</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>505.5475323587963</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,13 +8139,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>322.1293906135623</v>
       </c>
       <c r="M4" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>354.1411744239327</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
@@ -8222,16 +8224,16 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>547.9365584046775</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8301,22 +8303,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>183.9656051068834</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>371.4608596749573</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8386,10 +8388,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>299.4534711317698</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8453,22 +8455,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>478.5220861203824</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8532,7 +8534,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8541,19 +8543,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>172.0949298956461</v>
       </c>
       <c r="O9" t="n">
-        <v>375.5597255057597</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8611,10 +8613,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>232.5722561371962</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8687,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>872.3407557622799</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8708,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>369.2860653765435</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,19 +8777,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>594.2983494060088</v>
+        <v>1023.930471778425</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701171</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>421.8259818174598</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9003,19 +9005,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>929.1499025498222</v>
+        <v>701.9229593655479</v>
       </c>
       <c r="N15" t="n">
-        <v>198.9713854064914</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9027,7 +9029,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9176,10 +9178,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>493.0472488628395</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9237,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>253.3075301902236</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>228.1560083209544</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9401,10 +9403,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9419,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>224.6533223166459</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9489,16 +9491,16 @@
         <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>509.0341153029024</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9647,7 +9649,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9656,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>123.5223236751217</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10124,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>143.6953511146608</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10355,19 +10357,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>356.8654072451563</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10428,25 +10430,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>784.1890535317962</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10592,16 +10594,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>763.430074865614</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>653.796189537838</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10662,28 +10664,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>508.5750866678849</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10823,10 +10825,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>586.4197136125397</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>52.06309604079524</v>
+        <v>698.7993741930976</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701171</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>53.33881209791556</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11141,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>482.0566840416756</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>186.3697998820327</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11300,25 +11302,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>388.3632827354076</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
@@ -11385,7 +11387,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>887.039252138758</v>
+        <v>425.7272987035383</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11394,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23258,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>204.5065822335048</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>33.77959195045315</v>
       </c>
       <c r="H13" t="n">
-        <v>6.759898196019435</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>362.9364153132868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>148.0644890060799</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>40.57006487929254</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23898,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>82.30430344824647</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>104.2220891810061</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>44.90651342055949</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>120.8366168176658</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>4.597542897051852</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24609,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9.607908858767075</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>118.5577190788907</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>79.27072328769655</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24886,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>54.0958220834242</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -25366,13 +25368,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>18.44967133088738</v>
       </c>
       <c r="W37" t="n">
-        <v>200.0421967183576</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>256.132425333167</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>224.6098330445211</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>61.16025669685166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>12.03862242150589</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>207.1065456054744</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>215.8898046714236</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>65.23940003763001</v>
       </c>
       <c r="E46" t="n">
-        <v>110.1123201824357</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>518766.048718086</v>
+        <v>519913.4579440682</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>518766.048718086</v>
+        <v>523628.5172928157</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>518766.048718086</v>
+        <v>523628.5172928157</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>425579.5698305609</v>
+        <v>535255.6495783143</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>425579.5698305609</v>
+        <v>535255.6495783143</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>535255.6495783142</v>
+        <v>535255.6495783143</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>535255.6495783143</v>
+        <v>535255.6495783144</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>425579.5698305611</v>
+        <v>535255.6495783143</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>425579.569830561</v>
+        <v>535255.6495783144</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26316,28 @@
         <v>538759.4679103256</v>
       </c>
       <c r="C2" t="n">
-        <v>538759.4679103261</v>
+        <v>538759.4679103259</v>
       </c>
       <c r="D2" t="n">
-        <v>538759.4679103254</v>
+        <v>538759.4679103256</v>
       </c>
       <c r="E2" t="n">
-        <v>413372.7938833159</v>
+        <v>519878.1229021387</v>
       </c>
       <c r="F2" t="n">
-        <v>413372.7938833158</v>
+        <v>519878.122902139</v>
       </c>
       <c r="G2" t="n">
-        <v>519878.1229021388</v>
+        <v>519878.1229021385</v>
       </c>
       <c r="H2" t="n">
-        <v>519878.1229021385</v>
+        <v>519878.1229021386</v>
       </c>
       <c r="I2" t="n">
         <v>519878.1229021383</v>
       </c>
       <c r="J2" t="n">
-        <v>519878.1229021384</v>
+        <v>519878.1229021382</v>
       </c>
       <c r="K2" t="n">
         <v>519878.1229021384</v>
@@ -26344,16 +26346,16 @@
         <v>519878.1229021384</v>
       </c>
       <c r="M2" t="n">
-        <v>519878.1229021388</v>
+        <v>519878.1229021384</v>
       </c>
       <c r="N2" t="n">
+        <v>519878.1229021387</v>
+      </c>
+      <c r="O2" t="n">
         <v>519878.1229021386</v>
       </c>
-      <c r="O2" t="n">
-        <v>413372.7938833158</v>
-      </c>
       <c r="P2" t="n">
-        <v>413372.793883316</v>
+        <v>519878.1229021383</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361233</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199461.1094204221</v>
+        <v>195487.3209125818</v>
       </c>
       <c r="C4" t="n">
-        <v>199461.1094204221</v>
+        <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
-        <v>199461.1094204221</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>57519.56881304552</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="F4" t="n">
-        <v>57519.56881304551</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="H4" t="n">
+        <v>72380.62724986367</v>
+      </c>
+      <c r="I4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="J4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="J4" t="n">
-        <v>72380.62724986367</v>
-      </c>
-      <c r="K4" t="n">
-        <v>72380.62724986373</v>
-      </c>
       <c r="L4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986361</v>
       </c>
       <c r="N4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>57519.56881304551</v>
+        <v>72380.62724986367</v>
       </c>
       <c r="P4" t="n">
-        <v>57519.56881304551</v>
+        <v>72380.62724986373</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216123</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
+        <v>77750.06218842971</v>
+      </c>
+      <c r="N5" t="n">
         <v>77750.06218842969</v>
       </c>
-      <c r="N5" t="n">
-        <v>77750.06218842967</v>
-      </c>
       <c r="O5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122991.9236015546</v>
+        <v>118106.2281059915</v>
       </c>
       <c r="C6" t="n">
-        <v>277617.6442196757</v>
+        <v>265285.3176833864</v>
       </c>
       <c r="D6" t="n">
-        <v>277617.644219675</v>
+        <v>288692.1513569984</v>
       </c>
       <c r="E6" t="n">
-        <v>168001.5272407888</v>
+        <v>154008.0769072049</v>
       </c>
       <c r="F6" t="n">
-        <v>300765.1952503906</v>
+        <v>369747.4334638456</v>
       </c>
       <c r="G6" t="n">
-        <v>267587.5133695357</v>
+        <v>369747.4334638451</v>
       </c>
       <c r="H6" t="n">
-        <v>369747.4334638451</v>
+        <v>369747.4334638453</v>
       </c>
       <c r="I6" t="n">
         <v>369747.4334638449</v>
       </c>
       <c r="J6" t="n">
-        <v>249024.9165210882</v>
+        <v>243170.1648835561</v>
       </c>
       <c r="K6" t="n">
-        <v>369747.433463845</v>
+        <v>351100.8331068251</v>
       </c>
       <c r="L6" t="n">
-        <v>369747.433463845</v>
+        <v>369747.4334638451</v>
       </c>
       <c r="M6" t="n">
-        <v>258938.0733547119</v>
+        <v>189683.5620086775</v>
       </c>
       <c r="N6" t="n">
         <v>369747.4334638453</v>
       </c>
       <c r="O6" t="n">
-        <v>300765.1952503906</v>
+        <v>369747.4334638452</v>
       </c>
       <c r="P6" t="n">
-        <v>300765.1952503909</v>
+        <v>369747.4334638449</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>44.03239261804885</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>247.9506193734107</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27442,7 +27444,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>126.9847475870477</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>13.60966652399929</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27622,16 +27624,16 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>46.25593661269659</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27676,7 +27678,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>309.1537742176948</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>5.674440691573807</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.11048055134003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>353.0609246327053</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>11.66829397508735</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>18.3968192622354</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.774869517269423</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -29335,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>442.7574853255731</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>368.5706731844563</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>359.9096973612265</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>368.1052675669841</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,13 +34859,13 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>300.2106307178611</v>
       </c>
       <c r="M4" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>160.7937153846612</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35106,10 +35108,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>277.0726704737833</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,19 +35263,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="O9" t="n">
-        <v>352.3878357835375</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>211.6076016844843</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>835.0611329278338</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35428,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>333.1613907719454</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>571.2015688936808</v>
+        <v>1000.833691266097</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374942</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>384.4350224614357</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>906.0531220374942</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="N15" t="n">
-        <v>177.6283571929498</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35896,10 +35898,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>455.4718870526082</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>230.9082963568903</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36139,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.5286477120479</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,16 +36211,16 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36367,7 +36369,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36376,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>94.10236418953517</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36844,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>106.3043917586367</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37075,19 +37077,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>319.4744478891323</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,16 +37314,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>726.1504520311679</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>616.2208277276068</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>548.1076711799168</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>30.72006782725357</v>
+        <v>677.456345979556</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374942</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>15.76345028768426</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>459.6574502083423</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>350.0512403027847</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
@@ -38105,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>865.6962239252164</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
@@ -38190,7 +38192,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968725</v>
       </c>
       <c r="Q46" t="n">
         <v>128.2829598391535</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2412700.051140897</v>
+        <v>2412003.389935806</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114753</v>
+        <v>612367.9462114758</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.6174880305659</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -670,16 +670,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>255.3173044467211</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>128.9342698104393</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>113.9212067093113</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>51.29721097934932</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>374.6170033797972</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.5898683333712</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1104,19 +1104,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1138,22 +1138,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>100.9906904719742</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.0480212707258</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>143.2867858822616</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1438,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446589</v>
       </c>
     </row>
     <row r="12">
@@ -1530,22 +1530,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>130.814808058257</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>58.44521027254162</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.19982001886513</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2058,13 +2058,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>173.1605148336926</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2089,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>116.2748171257525</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2295,7 +2295,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>119.3016407709871</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>137.7607629098753</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2532,7 +2532,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155064</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>160.5352476244181</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>123.9086344760396</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>108.9935857372484</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3274,7 +3274,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.7171704536238</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855901</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>260.444681387164</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>39.3963362682162</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3559,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095512</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>47.49404674469103</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>86.73226015562089</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439297</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>96.44420510686699</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>967.1113293026274</v>
+        <v>528.1740540056945</v>
       </c>
       <c r="C2" t="n">
-        <v>540.2105993159274</v>
+        <v>505.3137280593987</v>
       </c>
       <c r="D2" t="n">
-        <v>520.9583825413317</v>
+        <v>486.061511284803</v>
       </c>
       <c r="E2" t="n">
-        <v>499.0218467295933</v>
+        <v>464.1249754730646</v>
       </c>
       <c r="F2" t="n">
-        <v>73.89766491899351</v>
+        <v>443.0411977028689</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884621</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884621</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231741</v>
+        <v>401.3055941092131</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347454</v>
+        <v>401.3055941092131</v>
       </c>
       <c r="L2" t="n">
-        <v>996.5799837771733</v>
+        <v>401.3055941092131</v>
       </c>
       <c r="M2" t="n">
-        <v>1361.464950229785</v>
+        <v>401.3055941092131</v>
       </c>
       <c r="N2" t="n">
-        <v>1361.464950229785</v>
+        <v>521.143436626835</v>
       </c>
       <c r="O2" t="n">
-        <v>1361.464950229785</v>
+        <v>1000.082360869264</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229785</v>
+        <v>1479.021285111694</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733968</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489011</v>
+        <v>1830.739470489017</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533644</v>
+        <v>1830.739470489017</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130056</v>
+        <v>1572.38456108543</v>
       </c>
       <c r="V2" t="n">
-        <v>1351.458990130056</v>
+        <v>1214.895146211679</v>
       </c>
       <c r="W2" t="n">
-        <v>1351.458990130056</v>
+        <v>956.9988790937789</v>
       </c>
       <c r="X2" t="n">
-        <v>1343.779395338208</v>
+        <v>949.3192843019302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1342.482529333502</v>
+        <v>543.9820142568205</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.542625066816</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843207</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996057</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725429</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554471</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730511</v>
+        <v>92.07822853000795</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353607</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="I3" t="n">
-        <v>133.8657769972725</v>
+        <v>46.14877825422938</v>
       </c>
       <c r="J3" t="n">
-        <v>133.8657769972725</v>
+        <v>317.8462675338205</v>
       </c>
       <c r="K3" t="n">
-        <v>133.8657769972725</v>
+        <v>317.8462675338205</v>
       </c>
       <c r="L3" t="n">
-        <v>133.8657769972725</v>
+        <v>317.8462675338205</v>
       </c>
       <c r="M3" t="n">
-        <v>612.8047012397005</v>
+        <v>317.8462675338205</v>
       </c>
       <c r="N3" t="n">
-        <v>977.2289161310148</v>
+        <v>796.78519177625</v>
       </c>
       <c r="O3" t="n">
-        <v>1456.167840373443</v>
+        <v>822.2860546829154</v>
       </c>
       <c r="P3" t="n">
-        <v>1935.106764615871</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1935.106764615871</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615871</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177125</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474803</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.13438539444</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533706</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366923</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335863</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868787</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>783.7024888483238</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="C4" t="n">
-        <v>783.7024888483238</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="D4" t="n">
-        <v>620.3857159750945</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="F4" t="n">
-        <v>448.5239417496549</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520414</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647543</v>
+        <v>96.19346351647556</v>
       </c>
       <c r="K4" t="n">
-        <v>96.19346351647543</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271579</v>
+        <v>677.4103860167336</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974087</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1808.106634375115</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303044</v>
+        <v>1888.06815130305</v>
       </c>
       <c r="S4" t="n">
-        <v>1888.068151303044</v>
+        <v>1717.933103822185</v>
       </c>
       <c r="T4" t="n">
-        <v>1772.996225334042</v>
+        <v>1474.593756048085</v>
       </c>
       <c r="U4" t="n">
-        <v>1772.996225334042</v>
+        <v>1194.40930754839</v>
       </c>
       <c r="V4" t="n">
-        <v>1491.284757942071</v>
+        <v>912.6978401564184</v>
       </c>
       <c r="W4" t="n">
-        <v>1216.432354114584</v>
+        <v>637.8454363289313</v>
       </c>
       <c r="X4" t="n">
-        <v>973.8684575603895</v>
+        <v>395.2815397747364</v>
       </c>
       <c r="Y4" t="n">
-        <v>973.8684575603895</v>
+        <v>168.9387714644784</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.32778354778</v>
+        <v>158.88477840153</v>
       </c>
       <c r="C5" t="n">
-        <v>1272.467457601484</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>1253.215240826888</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>827.2383009747456</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
         <v>44.49822504924753</v>
@@ -4567,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>44.49822504924753</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N5" t="n">
-        <v>595.1637600336857</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335517</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W5" t="n">
-        <v>1724.152608635864</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X5" t="n">
-        <v>1716.473013844015</v>
+        <v>984.0704127381697</v>
       </c>
       <c r="Y5" t="n">
-        <v>1311.135743798905</v>
+        <v>578.73314269306</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>323.6423572907505</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M6" t="n">
-        <v>874.3078922751886</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>874.3078922751886</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1424.973427259627</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792.5008004748155</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>620.5282373537315</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>620.5282373537315</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
         <v>454.3200315065851</v>
@@ -4752,25 +4752,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1727.553143168988</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1445.841675777017</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1445.841675777017</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1203.277779222822</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>976.9350109125642</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.775797585523</v>
+        <v>912.7655429749336</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.915471639227</v>
+        <v>889.9052170286378</v>
       </c>
       <c r="D8" t="n">
-        <v>824.622850824227</v>
+        <v>870.6530002540421</v>
       </c>
       <c r="E8" t="n">
-        <v>802.6863150124886</v>
+        <v>848.7164644423037</v>
       </c>
       <c r="F8" t="n">
-        <v>377.5621332018889</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4810,16 +4810,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M8" t="n">
         <v>595.1637600336857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
         <v>2224.911252462377</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1911.404542910541</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1653.049633506954</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1295.560218633203</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W8" t="n">
-        <v>1295.560218633203</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="X8" t="n">
-        <v>1287.880623841354</v>
+        <v>1333.910773271169</v>
       </c>
       <c r="Y8" t="n">
-        <v>1286.583757836649</v>
+        <v>928.5735032260596</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K9" t="n">
-        <v>602.6104029955975</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L9" t="n">
-        <v>602.6104029955975</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M9" t="n">
-        <v>602.6104029955975</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608809</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>776.6315263011404</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>604.6589631800564</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>459.9248360262568</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>459.9248360262568</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4998,16 +4998,16 @@
         <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1484.213795394888</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1209.361391567401</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>966.797495013206</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>966.797495013206</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5050,40 +5050,40 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N11" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>3959.47027938737</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>4667.749558545297</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>3756.065627259876</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>3652.225668775161</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>3547.523735048099</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>3453.877904731003</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>3359.824132948607</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>3306.448039710917</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>3306.448039710917</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>3578.145528990508</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>3578.145528990508</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L12" t="n">
-        <v>3578.145528990508</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M12" t="n">
-        <v>4568.970883343944</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N12" t="n">
-        <v>4568.970883343944</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O12" t="n">
-        <v>4568.970883343944</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P12" t="n">
-        <v>4568.970883343944</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
-        <v>5033.116360206723</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>5115.135670291425</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>5033.81142285268</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>4891.931487150358</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>4707.163291069995</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>4502.190152209262</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>4305.668775042479</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>4142.191428809142</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>4002.498540162434</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>888.2776948471594</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="C13" t="n">
-        <v>716.3051317260754</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D13" t="n">
-        <v>716.3051317260754</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>550.0969258789289</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>378.2351516534893</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>246.0989818976741</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
         <v>102.3027134058285</v>
@@ -5226,25 +5226,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2176.64156157427</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1933.30221380017</v>
       </c>
       <c r="U13" t="n">
-        <v>1822.202732251165</v>
+        <v>1653.117765300474</v>
       </c>
       <c r="V13" t="n">
-        <v>1822.202732251165</v>
+        <v>1371.406297908503</v>
       </c>
       <c r="W13" t="n">
-        <v>1547.350328423678</v>
+        <v>1096.553894081016</v>
       </c>
       <c r="X13" t="n">
-        <v>1304.786431869483</v>
+        <v>853.9899975268211</v>
       </c>
       <c r="Y13" t="n">
-        <v>1078.443663559225</v>
+        <v>627.6472292165631</v>
       </c>
     </row>
     <row r="14">
@@ -5278,31 +5278,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O14" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
         <v>5010.768376164567</v>
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M15" t="n">
-        <v>1364.825557038856</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N15" t="n">
-        <v>1364.825557038856</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O15" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>919.4582979645735</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C16" t="n">
-        <v>747.4857348434895</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D16" t="n">
-        <v>584.1689619702602</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E16" t="n">
-        <v>417.9607561231137</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F16" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
         <v>102.3027134058285</v>
@@ -5436,10 +5436,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5463,25 +5463,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>960.064176771508</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y16" t="n">
-        <v>960.064176771508</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1715.81204584877</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M17" t="n">
-        <v>2720.098147267829</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5597,25 +5597,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>610.0460590406528</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="L18" t="n">
-        <v>1446.844867123559</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M18" t="n">
-        <v>1446.844867123559</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N18" t="n">
-        <v>1446.844867123559</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O18" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3538.928949812021</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>3366.956386690937</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>3366.956386690937</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>3200.748180843791</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>3200.748180843791</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>4479.713050780511</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>4198.00158338854</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>4198.00158338854</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>3955.437686834345</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>3729.094918524087</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
@@ -5752,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1429.986740661465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1429.986740661465</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>775.6620294727279</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>603.6894663516439</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
         <v>274.1644876312681</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5943,19 +5943,19 @@
         <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1869.241345563992</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1587.529878172021</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1312.677474344533</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.170766495052</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>965.8279981847936</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>742.8905159778161</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>742.8905159778161</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>579.5737431045868</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>579.5737431045868</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7119688791472</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>241.4549991733793</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O26" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>4935.721337874071</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6308,16 +6308,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1012.462104613637</v>
+        <v>1067.07923602298</v>
       </c>
       <c r="C28" t="n">
-        <v>840.4895414925531</v>
+        <v>895.1066729018962</v>
       </c>
       <c r="D28" t="n">
-        <v>840.4895414925531</v>
+        <v>731.7899000286669</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2813356454067</v>
+        <v>565.5816941815204</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>393.7199199560808</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>227.462950250313</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6414,22 +6414,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.628073325703</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.628073325703</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y28" t="n">
-        <v>1202.628073325703</v>
+        <v>1257.245204735046</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>922.3984947971121</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1032.493025844838</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1032.493025844838</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2129.375202991803</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478504</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6782,19 +6782,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427964</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>2986.82914530688</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063318</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076619</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261619</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6949,40 +6949,40 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O35" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905343</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409527</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291429</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164569</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209202</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805614</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931864</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232211</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399958</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354849</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>249.732578425915</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854197</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>964.4851292537592</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>964.4851292537592</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>964.4851292537592</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
         <v>1446.844867123559</v>
@@ -7083,25 +7083,25 @@
         <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>412.3559516034421</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302446</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
         <v>1132.196759100495</v>
@@ -7119,22 +7119,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>2019.640305074347</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W37" t="n">
-        <v>1744.78790124686</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="X37" t="n">
         <v>1502.224004692665</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,10 +7162,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7174,7 +7174,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7183,28 +7183,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495985</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.856391133498</v>
       </c>
       <c r="P38" t="n">
-        <v>4935.721337874071</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>4362.434577686964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>5033.116360206724</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O39" t="n">
-        <v>5033.116360206724</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3854.586992529306</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>4044.752961241372</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>4044.752961241372</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>4044.752961241372</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7411,46 +7411,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T41" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399955</v>
@@ -7481,7 +7481,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
@@ -7493,19 +7493,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
         <v>1910.990343986338</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1173.323611261878</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C43" t="n">
-        <v>1001.351048140794</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>838.0342752675643</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>671.8260694204179</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>499.9642951949783</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>333.7073254892104</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>189.9110569973648</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7599,22 +7599,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1832.396244838396</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1832.396244838396</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1832.396244838396</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X43" t="n">
-        <v>1589.832348284201</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y43" t="n">
-        <v>1363.489579973943</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,7 +7648,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
@@ -7657,43 +7657,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O44" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P44" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
         <v>102.3027134058285</v>
@@ -7727,28 +7727,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>1364.825557038856</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O45" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3375.975369221655</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>3204.002806100571</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>3106.584417103736</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>3106.584417103736</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>2934.722642878296</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>2934.722642878296</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>2934.722642878296</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878296</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102454</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308291</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602712</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572963</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199448999</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128762</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>4871.796322517327</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>4591.611874017632</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>4309.90040662566</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>4035.048002798173</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>3792.484106243979</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>3566.14133793372</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.541291948777</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865906</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>406.0019360838881</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>158.3279486098216</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099933</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529642005</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8066,22 +8066,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662956</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>389.4482957805258</v>
+        <v>505.1197193675109</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761899</v>
+        <v>48.93033710269228</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587963</v>
+        <v>505.5475323587979</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,10 +8139,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>322.1293906135623</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.03818836741235</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
@@ -8230,13 +8230,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>547.9365584046775</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8297,25 +8297,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>371.4608596749573</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8458,19 +8458,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P8" t="n">
-        <v>571.3293238908518</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8531,10 +8531,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>175.9092261537768</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8543,7 +8543,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>172.0949298956461</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
@@ -8552,10 +8552,10 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>369.2860653765435</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>375.1268140734642</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1023.930471778425</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8947,7 +8947,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>72.59316121846759</v>
       </c>
       <c r="M15" t="n">
-        <v>701.9229593655479</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,10 +9169,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>579.1176643018625</v>
+        <v>878.1144544646197</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9245,10 +9245,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>253.3075301902236</v>
+        <v>117.2451261364169</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9257,7 +9257,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9266,7 +9266,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9479,7 +9479,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9488,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>509.0341153029024</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>196.7283130837754</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>129.1350140843319</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9725,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,19 +9956,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10114,7 +10114,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,7 +10211,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>423.228367941047</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
@@ -10372,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10597,13 +10597,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>653.796189537838</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10664,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>618.848654609434</v>
@@ -10676,13 +10676,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>508.5750866678849</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>517.654651463558</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>217.3512730059682</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10910,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>698.7993741930976</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11141,22 +11141,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>186.3697998820327</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>217.3512730059682</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,19 +11387,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>425.7272987035383</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>33.77959195045315</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>109.9884867335149</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.0644890060799</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23703,7 +23703,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>104.2220891810061</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>71.98949189919253</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>120.8366168176658</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>4.597542897051852</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>71.98949189919239</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>9.607908858767075</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.44967133088755</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.27072328769655</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>18.44967133088738</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>200.7419213204367</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>224.6098330445211</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>12.03862242150589</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.23940003763001</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>519913.4579440682</v>
+        <v>519913.4579440683</v>
       </c>
     </row>
     <row r="3">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>535255.6495783144</v>
+        <v>535255.6495783143</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>535255.6495783144</v>
+        <v>535255.6495783143</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>535255.6495783144</v>
+        <v>535255.6495783143</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>535255.6495783144</v>
+        <v>535255.6495783143</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>538759.4679103256</v>
       </c>
       <c r="C2" t="n">
+        <v>538759.4679103255</v>
+      </c>
+      <c r="D2" t="n">
         <v>538759.4679103259</v>
       </c>
-      <c r="D2" t="n">
-        <v>538759.4679103256</v>
-      </c>
       <c r="E2" t="n">
-        <v>519878.1229021387</v>
+        <v>519878.1229021386</v>
       </c>
       <c r="F2" t="n">
         <v>519878.122902139</v>
       </c>
       <c r="G2" t="n">
-        <v>519878.1229021385</v>
+        <v>519878.1229021388</v>
       </c>
       <c r="H2" t="n">
-        <v>519878.1229021386</v>
+        <v>519878.1229021387</v>
       </c>
       <c r="I2" t="n">
-        <v>519878.1229021383</v>
+        <v>519878.1229021384</v>
       </c>
       <c r="J2" t="n">
+        <v>519878.1229021384</v>
+      </c>
+      <c r="K2" t="n">
         <v>519878.1229021382</v>
-      </c>
-      <c r="K2" t="n">
-        <v>519878.1229021384</v>
       </c>
       <c r="L2" t="n">
         <v>519878.1229021384</v>
       </c>
       <c r="M2" t="n">
-        <v>519878.1229021384</v>
+        <v>519878.1229021385</v>
       </c>
       <c r="N2" t="n">
         <v>519878.1229021387</v>
       </c>
       <c r="O2" t="n">
-        <v>519878.1229021386</v>
+        <v>519878.122902139</v>
       </c>
       <c r="P2" t="n">
-        <v>519878.1229021383</v>
+        <v>519878.1229021389</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695911</v>
+        <v>162124.6960695916</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361233</v>
+        <v>23406.83367361182</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802887</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701988</v>
+        <v>18646.60035701947</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195487.3209125818</v>
+        <v>195487.3209125815</v>
       </c>
       <c r="C4" t="n">
         <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
-        <v>182621.0655158991</v>
+        <v>182621.065515899</v>
       </c>
       <c r="E4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="F4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="H4" t="n">
-        <v>72380.62724986367</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="I4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="L4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.62724986361</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="N4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="O4" t="n">
-        <v>72380.62724986367</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="P4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.6272498637</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216123</v>
+        <v>63041.22282216133</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842971</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118106.2281059915</v>
+        <v>118106.2281059911</v>
       </c>
       <c r="C6" t="n">
-        <v>265285.3176833864</v>
+        <v>265285.3176833865</v>
       </c>
       <c r="D6" t="n">
-        <v>288692.1513569984</v>
+        <v>288692.1513569987</v>
       </c>
       <c r="E6" t="n">
-        <v>154008.0769072049</v>
+        <v>153957.0462450204</v>
       </c>
       <c r="F6" t="n">
-        <v>369747.4334638456</v>
+        <v>369696.4028016613</v>
       </c>
       <c r="G6" t="n">
-        <v>369747.4334638451</v>
+        <v>369696.4028016611</v>
       </c>
       <c r="H6" t="n">
-        <v>369747.4334638453</v>
+        <v>369696.4028016611</v>
       </c>
       <c r="I6" t="n">
-        <v>369747.4334638449</v>
+        <v>369696.4028016607</v>
       </c>
       <c r="J6" t="n">
-        <v>243170.1648835561</v>
+        <v>243119.1342213716</v>
       </c>
       <c r="K6" t="n">
-        <v>351100.8331068251</v>
+        <v>351049.802444641</v>
       </c>
       <c r="L6" t="n">
-        <v>369747.4334638451</v>
+        <v>369696.4028016607</v>
       </c>
       <c r="M6" t="n">
-        <v>189683.5620086775</v>
+        <v>189632.5313464933</v>
       </c>
       <c r="N6" t="n">
-        <v>369747.4334638453</v>
+        <v>369696.4028016611</v>
       </c>
       <c r="O6" t="n">
-        <v>369747.4334638452</v>
+        <v>369696.4028016613</v>
       </c>
       <c r="P6" t="n">
-        <v>369747.4334638449</v>
+        <v>369696.4028016612</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26798,7 +26798,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
         <v>1278.783917572857</v>
@@ -26822,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.45112196162489</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572622</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.45112196162489</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.556104457262</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.45112196162489</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572622</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.03239261804885</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,16 +27390,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>137.1101317559354</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.33003921450572</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>126.9847475870477</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>371.3345117074836</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>46.25593661269659</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.674440691573807</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>319.8822495205195</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>11.66829397508735</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>18.3968192622354</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539676</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539676</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>368.5706731844563</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>121.0483257753756</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539676</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>368.1052675669841</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539676</v>
+        <v>25.75844738047006</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>300.2106307178611</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.657387709425864</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
@@ -34950,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>510.5455990486534</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35017,25 +35017,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35178,19 +35178,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
+        <v>533.7539620806206</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="P8" t="n">
-        <v>533.7539620806206</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>150.7519016821045</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
@@ -35272,10 +35272,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>333.1613907719454</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1000.833691266097</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35667,7 +35667,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="M15" t="n">
-        <v>678.8261788532199</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,10 +35889,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>540.8056218692396</v>
+        <v>839.8024120319968</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35965,10 +35965,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>230.9082963568903</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>174.9574718789467</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36381,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>94.10236418953542</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>385.7971050416152</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
@@ -37092,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37317,13 +37317,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>616.2208277276068</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>596.4494207761006</v>
@@ -37396,13 +37396,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641263</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>181.2265984013702</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>677.456345979556</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.2265984013702</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38192,7 +38192,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>293.5345574968725</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
         <v>128.2829598391535</v>
